--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D63626-5684-0B48-AF6E-18D73F61B839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E11ABE1-2F90-C549-B680-A3C115392190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -93,6 +93,39 @@
   </si>
   <si>
     <t>Information Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A weakly-supervised graph-based joint sentiment topic model for multi-topic sentiment analysis </t>
+  </si>
+  <si>
+    <t>Identifying impact of intrinsic factors on topic preferences in online social media: A nonparametric hierarchical Bayesian approach (*)</t>
+  </si>
+  <si>
+    <t>Author topic model for co-occurring normal documents and short texts to explore individual user preferences (*)</t>
+  </si>
+  <si>
+    <t>Journal of Infometrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application of machine learning techniques to assess the trends and alignment of the funded research output </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developing a topic-driven method for interdisciplinarity analysis </t>
+  </si>
+  <si>
+    <t>Improving fitness: Mapping research priorities against societal needs on obesity (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it all bafflegab? – Linguistic and meta characteristics of research articles in prestigious economics journals </t>
+  </si>
+  <si>
+    <t>Topic-linked innovation paths in science and technology (*)</t>
+  </si>
+  <si>
+    <t>Does deep learning help topic extraction? A kernel k-means clustering method with word embedding (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring scientific trajectories of a large-scale dataset using topic-integrated path extraction </t>
   </si>
 </sst>
 </file>
@@ -453,20 +486,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="118.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -476,75 +510,108 @@
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>17</v>
       </c>

--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E11ABE1-2F90-C549-B680-A3C115392190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DA5294-013D-3749-A411-CCC80363E738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -126,6 +126,33 @@
   </si>
   <si>
     <t xml:space="preserve">Exploring scientific trajectories of a large-scale dataset using topic-integrated path extraction </t>
+  </si>
+  <si>
+    <t>Knowledge-Based Systems</t>
+  </si>
+  <si>
+    <t>What is this Cluster about? Explaining textual clusters by extracting relevant keywords (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimental explorations on short text topic mining between LDA and NMF based Schemes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detecting and predicting the topic change of Knowledge-based Systems: A topic-based bibliometric analysis from 1991 to 2016 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying topical influencers on twitter based on user behavior and network topology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influence Factorization for identifying authorities in Twitter </t>
+  </si>
+  <si>
+    <t>Learning document representation via topic-enhanced LSTM model</t>
+  </si>
+  <si>
+    <t>Pattern Recognition</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -149,12 +176,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,9 +202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,9 +532,11 @@
     <col min="2" max="2" width="118.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="108.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -513,8 +549,14 @@
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -527,8 +569,14 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -541,8 +589,11 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -555,8 +606,11 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -566,24 +620,33 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -591,27 +654,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>17</v>
       </c>

--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DA5294-013D-3749-A411-CCC80363E738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E208AA-65C6-2047-B8E9-DCE31EDCD833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -153,6 +153,63 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhraseCTM: Correlated Topic Modeling on Phrases within Markov Random Fields </t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>Spatial Aggregation Facilitates Discovery of Spatial Topics (*)</t>
+  </si>
+  <si>
+    <t>Generating Summaries with Topic Templates and Structured Convolutional Decoders (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Mixed Counting Models for Dispersed Topic Discovery </t>
+  </si>
+  <si>
+    <t>An Unsupervised Neural Attention Model for Aspect Extraction (*)</t>
+  </si>
+  <si>
+    <t>CIKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Rating to Rule Them All? Evidence of Multidimensionality in Human Assessment of Topic Labeling Quality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConCET: Entity-Aware Topic Classification for Open-Domain Conversational Agents </t>
+  </si>
+  <si>
+    <t>COLING</t>
+  </si>
+  <si>
+    <t>Twitter Topic Classification (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Topic: Topic model inference by consecutive word community discovery </t>
+  </si>
+  <si>
+    <t>Model-Free Context-Aware Word Composition (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining Crowdsourcing Problems from Discussion Forums of Workers </t>
+  </si>
+  <si>
+    <t>EACL</t>
+  </si>
+  <si>
+    <t>Multimodal Topic Labelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BART-TL: Weakly-Supervised Topic Label Generation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adversarial Learning of Poisson Factorisation Model for Gauging Brand Sentiment in User Reviews </t>
+  </si>
+  <si>
+    <t>ECIR</t>
   </si>
 </sst>
 </file>
@@ -520,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,9 +591,12 @@
     <col min="4" max="4" width="93.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="108.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="94.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -555,8 +615,11 @@
       <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -575,8 +638,11 @@
       <c r="F2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -592,8 +658,11 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -609,8 +678,11 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -623,8 +695,11 @@
       <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -634,8 +709,11 @@
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -646,37 +724,92 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E208AA-65C6-2047-B8E9-DCE31EDCD833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752434E3-69A5-4F48-876E-9113F349831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -210,6 +210,30 @@
   </si>
   <si>
     <t>ECIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilingual Topic Labelling of News Topics Using Ontological Mapping </t>
+  </si>
+  <si>
+    <t>Labeling Topics with Images Using a Neural Network (*)</t>
+  </si>
+  <si>
+    <t>ECML PKDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survival Factorization on Diffusion Networks </t>
+  </si>
+  <si>
+    <t>KDD</t>
+  </si>
+  <si>
+    <t>TaxoGen: Unsupervised Topic Taxonomy Construction by Adaptive Term Embedding and Clustering (*)</t>
+  </si>
+  <si>
+    <t>Hierarchical Topic Mining via Joint Spherical Tree and Text Embedding (*)</t>
+  </si>
+  <si>
+    <t>EMNLP</t>
   </si>
 </sst>
 </file>
@@ -577,21 +601,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="108.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="94.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" customWidth="1"/>
   </cols>
@@ -600,20 +624,8 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -623,20 +635,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -646,17 +646,8 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -666,18 +657,6 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
       <c r="G4" t="s">
         <v>42</v>
       </c>
@@ -686,133 +665,245 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
+      <c r="C6" t="s">
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23" s="1" t="s">
-        <v>57</v>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752434E3-69A5-4F48-876E-9113F349831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBF6B2A-8AAF-A648-B497-1B03B5E6E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">Sourcing product innovation intelligence from online reviews </t>
   </si>
   <si>
-    <t>How do consumers in the sharing economy value sharing? Evidence from online reviews (*)</t>
-  </si>
-  <si>
     <t>Decision Support Systems</t>
   </si>
   <si>
@@ -68,15 +65,9 @@
     <t xml:space="preserve">Latent Dirichlet allocation (LDA) for topic modeling of the CFPB consumer complaints </t>
   </si>
   <si>
-    <t>Social media analysis by innovative hybrid algorithms with label propagation (*)</t>
-  </si>
-  <si>
     <t>The climate change Twitter dataset</t>
   </si>
   <si>
-    <t>W2VLDA: Almost unsupervised system for Aspect Based Sentiment Analysis (*)</t>
-  </si>
-  <si>
     <t>Supporting digital content marketing and messaging through topic modelling and decision trees</t>
   </si>
   <si>
@@ -98,12 +89,6 @@
     <t xml:space="preserve">A weakly-supervised graph-based joint sentiment topic model for multi-topic sentiment analysis </t>
   </si>
   <si>
-    <t>Identifying impact of intrinsic factors on topic preferences in online social media: A nonparametric hierarchical Bayesian approach (*)</t>
-  </si>
-  <si>
-    <t>Author topic model for co-occurring normal documents and short texts to explore individual user preferences (*)</t>
-  </si>
-  <si>
     <t>Journal of Infometrics</t>
   </si>
   <si>
@@ -113,27 +98,15 @@
     <t xml:space="preserve">Developing a topic-driven method for interdisciplinarity analysis </t>
   </si>
   <si>
-    <t>Improving fitness: Mapping research priorities against societal needs on obesity (*)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Is it all bafflegab? – Linguistic and meta characteristics of research articles in prestigious economics journals </t>
   </si>
   <si>
-    <t>Topic-linked innovation paths in science and technology (*)</t>
-  </si>
-  <si>
-    <t>Does deep learning help topic extraction? A kernel k-means clustering method with word embedding (*)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exploring scientific trajectories of a large-scale dataset using topic-integrated path extraction </t>
   </si>
   <si>
     <t>Knowledge-Based Systems</t>
   </si>
   <si>
-    <t>What is this Cluster about? Explaining textual clusters by extracting relevant keywords (*)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Experimental explorations on short text topic mining between LDA and NMF based Schemes </t>
   </si>
   <si>
@@ -191,9 +164,6 @@
     <t xml:space="preserve">Community Topic: Topic model inference by consecutive word community discovery </t>
   </si>
   <si>
-    <t>Model-Free Context-Aware Word Composition (*)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mining Crowdsourcing Problems from Discussion Forums of Workers </t>
   </si>
   <si>
@@ -234,6 +204,42 @@
   </si>
   <si>
     <t>EMNLP</t>
+  </si>
+  <si>
+    <t>How do consumers in the sharing economy value sharing? Evidence from online reviews</t>
+  </si>
+  <si>
+    <t>Social media analysis by innovative hybrid algorithms with label propagation</t>
+  </si>
+  <si>
+    <t>Identifying impact of intrinsic factors on topic preferences in online social media: A nonparametric hierarchical Bayesian approach</t>
+  </si>
+  <si>
+    <t>Author topic model for co-occurring normal documents and short texts to explore individual user preferences</t>
+  </si>
+  <si>
+    <t>Improving fitness: Mapping research priorities against societal needs on obesity</t>
+  </si>
+  <si>
+    <t>Topic-linked innovation paths in science and technology</t>
+  </si>
+  <si>
+    <t>Does deep learning help topic extraction? A kernel k-means clustering method with word embedding</t>
+  </si>
+  <si>
+    <t>Model-Free Context-Aware Word Composition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Topic Modeling with Cycle-Consistent Adversarial Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condolence and Empathy in Online Communities </t>
+  </si>
+  <si>
+    <t>Exophoric Pronoun Resolution in Dialogues with Topic Regularization (*)</t>
+  </si>
+  <si>
+    <t>Phrase-BERT: Improved Phrase Embeddings from BERT with an Application to Corpus Exploration (*)</t>
   </si>
 </sst>
 </file>
@@ -601,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,13 +628,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -636,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -647,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -658,248 +664,248 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
+      <c r="A26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
+      <c r="A35" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>32</v>
+      <c r="A37" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>33</v>
+      <c r="A38" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>35</v>
+      <c r="A39" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>38</v>
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBF6B2A-8AAF-A648-B497-1B03B5E6E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0709F-60AA-D440-8EA7-EADA81E926BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
+    <sheet name="Conf." sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -134,9 +135,6 @@
     <t>ACL</t>
   </si>
   <si>
-    <t>Spatial Aggregation Facilitates Discovery of Spatial Topics (*)</t>
-  </si>
-  <si>
     <t>Generating Summaries with Topic Templates and Structured Convolutional Decoders (*)</t>
   </si>
   <si>
@@ -240,6 +238,18 @@
   </si>
   <si>
     <t>Phrase-BERT: Improved Phrase Embeddings from BERT with an Application to Corpus Exploration (*)</t>
+  </si>
+  <si>
+    <t>Spatial Aggregation Facilitates Discovery of Spatial Topics</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W2VLDA: Almost unsupervised system for Aspect Based Sentiment Analysis </t>
+  </si>
+  <si>
+    <t>Labeling used only during evaluation</t>
   </si>
 </sst>
 </file>
@@ -607,17 +617,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="118.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="94.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -626,285 +636,199 @@
     <col min="9" max="9" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>29</v>
       </c>
     </row>
@@ -912,4 +836,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="94.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0709F-60AA-D440-8EA7-EADA81E926BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88C2F22-E7C3-9D4C-9614-C9319E15D462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>Labeling used only during evaluation</t>
+  </si>
+  <si>
+    <t>NAACL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model or Topic Twaddle? Re-evaluating Semantic Interpretability Measures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Disentangled Adversarial Neural Topic Model for Separating Opinions from Plots in User Reviews </t>
   </si>
 </sst>
 </file>
@@ -619,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,10 +849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1015,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88C2F22-E7C3-9D4C-9614-C9319E15D462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A256D2-3966-6B41-9C35-74DA2B4B8949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
     <sheet name="Conf." sheetId="2" r:id="rId2"/>
+    <sheet name="STM" sheetId="4" r:id="rId3"/>
+    <sheet name="HM" sheetId="5" r:id="rId4"/>
+    <sheet name="CM" sheetId="6" r:id="rId5"/>
+    <sheet name="Others" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -259,6 +263,117 @@
   </si>
   <si>
     <t xml:space="preserve">A Disentangled Adversarial Neural Topic Model for Separating Opinions from Plots in User Reviews </t>
+  </si>
+  <si>
+    <t>SIGIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Generation of Topic Labels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTEM: Personal Tweets Summarization on Mobile Devices </t>
+  </si>
+  <si>
+    <t>Read what you need: Controllable Aspect-based Opinion Summarization of Tourist Reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word2vec-based latent semantic analysis (W2V-LSA) for topic modeling: A study on blockchain technology trend analysis </t>
+  </si>
+  <si>
+    <t>* A topic-sensitive trust evaluation approach for users in online communities (Knowledge-based systems)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* A Semi-discriminative Approach for Sub-sentence Level Topic Classification on a Small Dataset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Automatic Phenotyping by a Seed-guided Topic Model  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Neural Models for Documents with Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* SCDV : Sparse Composite Document Vectors using soft clustering over distributional representations </t>
+  </si>
+  <si>
+    <t>* Leveraging Just a Few Keywords for Fine-Grained Aspect Detection Through Weakly Supervised Co-Training (*)</t>
+  </si>
+  <si>
+    <t>* Adapting Topic Models using Lexical Associations with Tree Priors (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Topically Driven Neural Language Model </t>
+  </si>
+  <si>
+    <t>* Emotional Contagion-Based Social Sentiment Mining in Social Networks by Introducing Network Communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Analyzing Bayesian Crosslingual Transfer in Topic Models </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Multi-source Neural Topic Modeling in Multi-view Embedding Spaces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Seed-Guided Topic Discovery with Out-of-Vocabulary Seeds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Inductive Topic Variational Graph Auto-Encoder for Text Classification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Minimally Supervised Categorization of Text with Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Learning Domain Semantics and Cross-Domain Correlations for Paper Recommendation </t>
+  </si>
+  <si>
+    <t>* Labeled Anchors and a Scalable, Transparent, and Interactive Classifier (*)</t>
+  </si>
+  <si>
+    <t>* Preliminary exploration of topic modelling representations for Electronic Health Records coding according to the International Classification of Diseases in Spanish (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Topic Modeling for Multi-Aspect Listwise Comparisons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* TaxoGen: Unsupervised Topic Taxonomy Construction by Adaptive Term Embedding and Clustering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Hierarchical Topic Mining via Joint Spherical Tree and Text Embedding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* CoRel: Seed-Guided Topical Taxonomy Construction by Concept Learning and Relation Transferring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Topic Spotting using Hierarchical Networks with Self Attention </t>
+  </si>
+  <si>
+    <t>* Hierarchical Online NMF for Detecting and Tracking Topic Hierarchies in a Text Stream (*)</t>
+  </si>
+  <si>
+    <t>Decomposed Normalized Maximum Likelihood Codelength Criterion for Selecting Hierarchical Latent Variable Models (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Improving Deep Embedded Clustering via Learning Cluster-level Representations </t>
+  </si>
+  <si>
+    <t>* A network embedding-based scholar assessment indicator considering four facets: Research topic, author credit allocation, field-normalized journal impact, and published time (*)</t>
+  </si>
+  <si>
+    <t>* Is it all bafflegab? – Linguistic and meta characteristics of research articles in prestigious economics journals (*)</t>
+  </si>
+  <si>
+    <t>*Image labels*</t>
+  </si>
+  <si>
+    <t>* Labeling Topics with Images Using a Neural Network</t>
+  </si>
+  <si>
+    <t>*Descriptive topic labels applied directly to corpus content*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* CTM - A Model for Large-Scale Multi-View Tweet Topic Classification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Dialogue Topic Segmentation via Parallel Extraction Network with Neighbor Smoothing </t>
   </si>
 </sst>
 </file>
@@ -626,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,103 +856,108 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -849,15 +969,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="94.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -960,78 +1080,327 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02908B9D-569C-0746-A15F-6DD7BD461471}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="142" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD93A256-338D-8543-8ADA-696DC984E705}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="85.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59A15B-B322-0145-84CC-6A4A6E05F1E5}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="142" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F8C0EE-2910-E346-8BD7-D6BB2EAE7471}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A256D2-3966-6B41-9C35-74DA2B4B8949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1BE2D2-96FE-9C48-90E0-99231897A13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t xml:space="preserve">* Dialogue Topic Segmentation via Parallel Extraction Network with Neighbor Smoothing </t>
+  </si>
+  <si>
+    <t>Expert Systems with Applications</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +410,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,10 +444,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,7 +768,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,105 +1207,160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02908B9D-569C-0746-A15F-6DD7BD461471}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="142" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1BE2D2-96FE-9C48-90E0-99231897A13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8060616A-389F-0348-8199-262E55BDA87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -130,24 +130,15 @@
     <t>Pattern Recognition</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t xml:space="preserve">PhraseCTM: Correlated Topic Modeling on Phrases within Markov Random Fields </t>
   </si>
   <si>
     <t>ACL</t>
   </si>
   <si>
-    <t>Generating Summaries with Topic Templates and Structured Convolutional Decoders (*)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Neural Mixed Counting Models for Dispersed Topic Discovery </t>
   </si>
   <si>
-    <t>An Unsupervised Neural Attention Model for Aspect Extraction (*)</t>
-  </si>
-  <si>
     <t>CIKM</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>COLING</t>
   </si>
   <si>
-    <t>Twitter Topic Classification (*)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Community Topic: Topic model inference by consecutive word community discovery </t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t xml:space="preserve">Multilingual Topic Labelling of News Topics Using Ontological Mapping </t>
   </si>
   <si>
-    <t>Labeling Topics with Images Using a Neural Network (*)</t>
-  </si>
-  <si>
     <t>ECML PKDD</t>
   </si>
   <si>
@@ -199,12 +184,6 @@
     <t>KDD</t>
   </si>
   <si>
-    <t>TaxoGen: Unsupervised Topic Taxonomy Construction by Adaptive Term Embedding and Clustering (*)</t>
-  </si>
-  <si>
-    <t>Hierarchical Topic Mining via Joint Spherical Tree and Text Embedding (*)</t>
-  </si>
-  <si>
     <t>EMNLP</t>
   </si>
   <si>
@@ -238,24 +217,12 @@
     <t xml:space="preserve">Condolence and Empathy in Online Communities </t>
   </si>
   <si>
-    <t>Exophoric Pronoun Resolution in Dialogues with Topic Regularization (*)</t>
-  </si>
-  <si>
-    <t>Phrase-BERT: Improved Phrase Embeddings from BERT with an Application to Corpus Exploration (*)</t>
-  </si>
-  <si>
     <t>Spatial Aggregation Facilitates Discovery of Spatial Topics</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t xml:space="preserve">W2VLDA: Almost unsupervised system for Aspect Based Sentiment Analysis </t>
   </si>
   <si>
-    <t>Labeling used only during evaluation</t>
-  </si>
-  <si>
     <t>NAACL</t>
   </si>
   <si>
@@ -349,9 +316,6 @@
     <t>* Hierarchical Online NMF for Detecting and Tracking Topic Hierarchies in a Text Stream (*)</t>
   </si>
   <si>
-    <t>Decomposed Normalized Maximum Likelihood Codelength Criterion for Selecting Hierarchical Latent Variable Models (*)</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Improving Deep Embedded Clustering via Learning Cluster-level Representations </t>
   </si>
   <si>
@@ -377,6 +341,75 @@
   </si>
   <si>
     <t>Expert Systems with Applications</t>
+  </si>
+  <si>
+    <t>Labeling Topics with Images Using a Neural Network</t>
+  </si>
+  <si>
+    <t>A topic-sensitive trust evaluation approach for users in online communities (Knowledge-based systems)</t>
+  </si>
+  <si>
+    <t>Preliminary exploration of topic modelling representations for Electronic Health Records coding according to the International Classification of Diseases in Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-source Neural Topic Modeling in Multi-view Embedding Spaces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topically Driven Neural Language Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Models for Documents with Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCDV : Sparse Composite Document Vectors using soft clustering over distributional representations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Phenotyping by a Seed-guided Topic Model  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoRel: Seed-Guided Topical Taxonomy Construction by Concept Learning and Relation Transferring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchical Topic Mining via Joint Spherical Tree and Text Embedding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaxoGen: Unsupervised Topic Taxonomy Construction by Adaptive Term Embedding and Clustering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Semi-discriminative Approach for Sub-sentence Level Topic Classification on a Small Dataset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improving Deep Embedded Clustering via Learning Cluster-level Representations </t>
+  </si>
+  <si>
+    <t>Twitter Topic Classification</t>
+  </si>
+  <si>
+    <t>Adapting Topic Models using Lexical Associations with Tree Priors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductive Topic Variational Graph Auto-Encoder for Text Classification </t>
+  </si>
+  <si>
+    <t>Generating Summaries with Topic Templates and Structured Convolutional Decoders</t>
+  </si>
+  <si>
+    <t>An Unsupervised Neural Attention Model for Aspect Extraction</t>
+  </si>
+  <si>
+    <t>Phrase-BERT: Improved Phrase Embeddings from BERT with an Application to Corpus Exploration</t>
+  </si>
+  <si>
+    <t>Leveraging Just a Few Keywords for Fine-Grained Aspect Detection Through Weakly Supervised Co-Training</t>
+  </si>
+  <si>
+    <t>Exophoric Pronoun Resolution in Dialogues with Topic Regularization</t>
+  </si>
+  <si>
+    <t>Decomposed Normalized Maximum Likelihood Codelength Criterion for Selecting Hierarchical Latent Variable Models</t>
+  </si>
+  <si>
+    <t>Hierarchical Online NMF for Detecting and Tracking Topic Hierarchies in a Text Stream</t>
   </si>
 </sst>
 </file>
@@ -400,18 +433,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -444,13 +471,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,15 +791,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="118.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="142" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
@@ -788,28 +814,26 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -818,174 +842,184 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>24</v>
+      <c r="A38" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>29</v>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A5">
+    <sortCondition ref="A5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -993,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,200 +1040,258 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>36</v>
+      <c r="A2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>37</v>
+      <c r="A3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>66</v>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>31</v>
+      <c r="A34" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>30</v>
+      <c r="A35" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>67</v>
+      <c r="A36" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>32</v>
+      <c r="A37" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>33</v>
+      <c r="A38" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>34</v>
+      <c r="A39" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>72</v>
+      <c r="A42" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>73</v>
+      <c r="A43" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>74</v>
+      <c r="A45" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>75</v>
+      <c r="A46" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>76</v>
+      <c r="A47" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>77</v>
+      <c r="A48" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:A59">
+    <sortCondition ref="A57:A59"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1209,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02908B9D-569C-0746-A15F-6DD7BD461471}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1220,147 +1312,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>79</v>
+      <c r="A1" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1370,40 +1462,56 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD93A256-338D-8543-8ADA-696DC984E705}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="85.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>101</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1413,30 +1521,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB59A15B-B322-0145-84CC-6A4A6E05F1E5}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="142" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="153.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>105</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1446,37 +1564,49 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F8C0EE-2910-E346-8BD7-D6BB2EAE7471}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="76.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8060616A-389F-0348-8199-262E55BDA87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387E7C1-D2B6-F74D-9164-F8704CDCAA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -226,9 +226,6 @@
     <t>NAACL</t>
   </si>
   <si>
-    <t xml:space="preserve">Model or Topic Twaddle? Re-evaluating Semantic Interpretability Measures </t>
-  </si>
-  <si>
     <t xml:space="preserve">A Disentangled Adversarial Neural Topic Model for Separating Opinions from Plots in User Reviews </t>
   </si>
   <si>
@@ -262,12 +259,6 @@
     <t xml:space="preserve">* SCDV : Sparse Composite Document Vectors using soft clustering over distributional representations </t>
   </si>
   <si>
-    <t>* Leveraging Just a Few Keywords for Fine-Grained Aspect Detection Through Weakly Supervised Co-Training (*)</t>
-  </si>
-  <si>
-    <t>* Adapting Topic Models using Lexical Associations with Tree Priors (*)</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Topically Driven Neural Language Model </t>
   </si>
   <si>
@@ -292,54 +283,12 @@
     <t xml:space="preserve">* Learning Domain Semantics and Cross-Domain Correlations for Paper Recommendation </t>
   </si>
   <si>
-    <t>* Labeled Anchors and a Scalable, Transparent, and Interactive Classifier (*)</t>
-  </si>
-  <si>
     <t>* Preliminary exploration of topic modelling representations for Electronic Health Records coding according to the International Classification of Diseases in Spanish (*)</t>
   </si>
   <si>
     <t xml:space="preserve">* Topic Modeling for Multi-Aspect Listwise Comparisons </t>
   </si>
   <si>
-    <t xml:space="preserve">* TaxoGen: Unsupervised Topic Taxonomy Construction by Adaptive Term Embedding and Clustering </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Hierarchical Topic Mining via Joint Spherical Tree and Text Embedding </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* CoRel: Seed-Guided Topical Taxonomy Construction by Concept Learning and Relation Transferring </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Topic Spotting using Hierarchical Networks with Self Attention </t>
-  </si>
-  <si>
-    <t>* Hierarchical Online NMF for Detecting and Tracking Topic Hierarchies in a Text Stream (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Improving Deep Embedded Clustering via Learning Cluster-level Representations </t>
-  </si>
-  <si>
-    <t>* A network embedding-based scholar assessment indicator considering four facets: Research topic, author credit allocation, field-normalized journal impact, and published time (*)</t>
-  </si>
-  <si>
-    <t>* Is it all bafflegab? – Linguistic and meta characteristics of research articles in prestigious economics journals (*)</t>
-  </si>
-  <si>
-    <t>*Image labels*</t>
-  </si>
-  <si>
-    <t>* Labeling Topics with Images Using a Neural Network</t>
-  </si>
-  <si>
-    <t>*Descriptive topic labels applied directly to corpus content*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* CTM - A Model for Large-Scale Multi-View Tweet Topic Classification </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Dialogue Topic Segmentation via Parallel Extraction Network with Neighbor Smoothing </t>
-  </si>
-  <si>
     <t>Expert Systems with Applications</t>
   </si>
   <si>
@@ -388,28 +337,49 @@
     <t>Adapting Topic Models using Lexical Associations with Tree Priors</t>
   </si>
   <si>
-    <t xml:space="preserve">Inductive Topic Variational Graph Auto-Encoder for Text Classification </t>
-  </si>
-  <si>
-    <t>Generating Summaries with Topic Templates and Structured Convolutional Decoders</t>
-  </si>
-  <si>
     <t>An Unsupervised Neural Attention Model for Aspect Extraction</t>
   </si>
   <si>
     <t>Phrase-BERT: Improved Phrase Embeddings from BERT with an Application to Corpus Exploration</t>
   </si>
   <si>
-    <t>Leveraging Just a Few Keywords for Fine-Grained Aspect Detection Through Weakly Supervised Co-Training</t>
-  </si>
-  <si>
-    <t>Exophoric Pronoun Resolution in Dialogues with Topic Regularization</t>
-  </si>
-  <si>
-    <t>Decomposed Normalized Maximum Likelihood Codelength Criterion for Selecting Hierarchical Latent Variable Models</t>
-  </si>
-  <si>
     <t>Hierarchical Online NMF for Detecting and Tracking Topic Hierarchies in a Text Stream</t>
+  </si>
+  <si>
+    <t>35 papers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic Model or Topic Twaddle? Re-evaluating Semantic Interpretability Measures </t>
+  </si>
+  <si>
+    <t>Image labels</t>
+  </si>
+  <si>
+    <t>Descriptive topic labels applied directly to corpus content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTM - A Model for Large-Scale Multi-View Tweet Topic Classification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialogue Topic Segmentation via Parallel Extraction Network with Neighbor Smoothing </t>
+  </si>
+  <si>
+    <t>A network embedding-based scholar assessment indicator considering four facets: Research topic, author credit allocation, field-normalized journal impact, and published time (*)</t>
+  </si>
+  <si>
+    <t>Is it all bafflegab? – Linguistic and meta characteristics of research articles in prestigious economics journals (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic Spotting using Hierarchical Networks with Self Attention </t>
+  </si>
+  <si>
+    <t>* Leveraging Just a Few Keywords for Fine-Grained Aspect Detection Through Weakly Supervised Co-Training</t>
+  </si>
+  <si>
+    <t>* Adapting Topic Models using Lexical Associations with Tree Priors</t>
+  </si>
+  <si>
+    <t>* Labeled Anchors and a Scalable, Transparent, and Interactive Classifier</t>
   </si>
 </sst>
 </file>
@@ -793,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,7 +784,9 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -868,7 +840,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -908,7 +880,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -978,7 +950,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -1013,7 +985,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1027,10 +999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,67 +1010,70 @@
     <col min="1" max="1" width="102.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1110,7 +1085,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -1125,7 +1100,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -1140,157 +1115,132 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>121</v>
+      <c r="A28" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>47</v>
+      <c r="A32" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>120</v>
+      <c r="A35" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>56</v>
+      <c r="A36" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>118</v>
+      <c r="A38" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>30</v>
+      <c r="A41" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>117</v>
+      <c r="A42" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>116</v>
+      <c r="A43" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>29</v>
+      <c r="A46" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>103</v>
+      <c r="A53" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A54" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:A59">
-    <sortCondition ref="A57:A59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:A54">
+    <sortCondition ref="A52:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1302,7 +1252,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,7 +1263,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -1321,7 +1271,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -1329,7 +1279,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1337,7 +1287,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -1345,15 +1295,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
+      <c r="A6" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -1361,7 +1311,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -1369,7 +1319,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1377,7 +1327,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -1385,7 +1335,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -1393,7 +1343,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -1401,15 +1351,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>80</v>
+      <c r="A13" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -1417,23 +1367,23 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
@@ -1441,15 +1391,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -1465,7 +1415,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1426,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>46</v>
@@ -1484,7 +1434,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1492,7 +1442,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1500,7 +1450,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -1508,7 +1458,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -1524,7 +1474,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1535,7 +1485,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -1543,7 +1493,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1551,7 +1501,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1567,7 +1517,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1577,12 +1527,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -1590,12 +1540,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -1603,10 +1553,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387E7C1-D2B6-F74D-9164-F8704CDCAA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E111CE1F-BE41-B842-AC3D-62B925F96F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -364,12 +364,6 @@
     <t xml:space="preserve">Dialogue Topic Segmentation via Parallel Extraction Network with Neighbor Smoothing </t>
   </si>
   <si>
-    <t>A network embedding-based scholar assessment indicator considering four facets: Research topic, author credit allocation, field-normalized journal impact, and published time (*)</t>
-  </si>
-  <si>
-    <t>Is it all bafflegab? – Linguistic and meta characteristics of research articles in prestigious economics journals (*)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Topic Spotting using Hierarchical Networks with Self Attention </t>
   </si>
   <si>
@@ -380,6 +374,12 @@
   </si>
   <si>
     <t>* Labeled Anchors and a Scalable, Transparent, and Interactive Classifier</t>
+  </si>
+  <si>
+    <t>Is it all bafflegab? – Linguistic and meta characteristics of research articles in prestigious economics journals</t>
+  </si>
+  <si>
+    <t>A network embedding-based scholar assessment indicator considering four facets: Research topic, author credit allocation, field-normalized journal impact, and published time</t>
   </si>
 </sst>
 </file>
@@ -763,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -1474,7 +1474,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>

--- a/References/Selection.xlsx
+++ b/References/Selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E111CE1F-BE41-B842-AC3D-62B925F96F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC84AEC0-775B-D547-A1D0-9B9FFE69E1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" activeTab="1" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{918F401B-A63E-8149-A476-55B40CEFA23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Journals" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
   <si>
     <t xml:space="preserve">A Text Analytics Approach for Online Retailing Service Improvement: Evidence from Twitter </t>
   </si>
@@ -301,9 +301,6 @@
     <t>Preliminary exploration of topic modelling representations for Electronic Health Records coding according to the International Classification of Diseases in Spanish</t>
   </si>
   <si>
-    <t xml:space="preserve">Multi-source Neural Topic Modeling in Multi-view Embedding Spaces </t>
-  </si>
-  <si>
     <t xml:space="preserve">Topically Driven Neural Language Model </t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t xml:space="preserve">Improving Deep Embedded Clustering via Learning Cluster-level Representations </t>
   </si>
   <si>
-    <t>Twitter Topic Classification</t>
-  </si>
-  <si>
     <t>Adapting Topic Models using Lexical Associations with Tree Priors</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>Hierarchical Online NMF for Detecting and Tracking Topic Hierarchies in a Text Stream</t>
   </si>
   <si>
-    <t>35 papers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Topic Model or Topic Twaddle? Re-evaluating Semantic Interpretability Measures </t>
   </si>
   <si>
@@ -380,6 +371,15 @@
   </si>
   <si>
     <t>A network embedding-based scholar assessment indicator considering four facets: Research topic, author credit allocation, field-normalized journal impact, and published time</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>34 papers</t>
+  </si>
+  <si>
+    <t>33 papers</t>
   </si>
 </sst>
 </file>
@@ -441,12 +441,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D4DB83-03AF-1249-BCA0-9BDEE1B9D372}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -964,12 +965,12 @@
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -984,8 +985,8 @@
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>100</v>
+      <c r="A46" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -999,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2A13A1-C41D-3C4B-A89D-FA9E8512A732}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1016,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1034,87 +1035,87 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>96</v>
+      <c r="A6" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
+      <c r="A12" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
+      <c r="A17" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
+      <c r="A21" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
+      <c r="A25" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1128,119 +1129,109 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>93</v>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
+      <c r="A31" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
+      <c r="A38" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>60</v>
+      <c r="A46" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>86</v>
+      <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>62</v>
+      <c r="A51" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:A54">
-    <sortCondition ref="A52:A54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:A52">
+    <sortCondition ref="A50:A52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1303,7 +1294,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -1311,7 +1302,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -1383,7 +1374,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
@@ -1415,7 +1406,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1426,7 +1417,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>46</v>
@@ -1434,7 +1425,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1442,7 +1433,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1450,15 +1441,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>100</v>
+      <c r="A5" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -1485,7 +1476,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -1493,7 +1484,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1501,7 +1492,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1527,7 +1518,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1540,12 +1531,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -1553,7 +1544,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
